--- a/field_lab_data/AGbiomass.xlsx
+++ b/field_lab_data/AGbiomass.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2E4FC-58F8-40EC-AED8-CEC133ED9287}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7652CB5A-0C51-43F6-BF85-70DC4AF1FA74}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="89">
   <si>
     <t>cut+manure</t>
   </si>
@@ -40,9 +40,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>plot_id</t>
-  </si>
-  <si>
     <t>1_A</t>
   </si>
   <si>
@@ -281,6 +278,18 @@
   </si>
   <si>
     <t>nov_g</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>bahia</t>
+  </si>
+  <si>
+    <t>mixed</t>
   </si>
 </sst>
 </file>
@@ -605,1136 +614,1576 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3.0163000000000002</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>3.0163000000000002</v>
-      </c>
-      <c r="E2" s="2">
-        <v>8.6199999999999992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.9847000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2.9847000000000001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.2613000000000003</v>
+      </c>
+      <c r="G6" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7.2613000000000003</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5.7462</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.0838999999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.0419999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.6906000000000001</v>
+      </c>
+      <c r="G11" s="2">
+        <v>17.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.2631000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.55049999999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="G15" s="2">
+        <v>9.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5.7462</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20.45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.0838999999999999</v>
-      </c>
-      <c r="E8" s="2">
-        <v>29.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2.0419999999999998</v>
-      </c>
-      <c r="E9" s="2">
-        <v>24.34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.6906000000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>17.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2.2631000000000001</v>
-      </c>
-      <c r="E13" s="2">
-        <v>12.23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.55049999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>6.51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.89580000000000004</v>
-      </c>
-      <c r="E15" s="2">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="G17" s="2">
+        <v>22.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="E17" s="2">
-        <v>22.06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="E18" s="2">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>23</v>
+      <c r="B20">
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="2">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
         <v>1.7462</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
-        <v>24</v>
+      <c r="B21">
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
         <v>7.1936999999999998</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>33.130000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
-        <v>25</v>
+      <c r="B22">
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
-        <v>26</v>
+      <c r="B23">
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
         <v>0.45190000000000002</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>5.89</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
-        <v>27</v>
+      <c r="B24">
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
-        <v>28</v>
+      <c r="B25">
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
         <v>1.3974</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>7.96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
-        <v>29</v>
+      <c r="B26">
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
         <v>0.93440000000000001</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>11.07</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
-        <v>30</v>
+      <c r="B27">
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
         <v>7.96</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>15.46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
-      <c r="B28" t="s">
-        <v>31</v>
+      <c r="B28">
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>32</v>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
         <v>1.194</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>7.71</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
-        <v>33</v>
+      <c r="B30">
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
-        <v>34</v>
+      <c r="B31">
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="2">
+        <v>87</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
         <v>3.4611000000000001</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>15.38</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
-        <v>35</v>
+      <c r="B32">
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+        <v>87</v>
+      </c>
+      <c r="D32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
         <v>0.28399999999999997</v>
       </c>
-      <c r="E32" s="2">
+      <c r="G32" s="2">
         <v>6.11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
-        <v>36</v>
+      <c r="B33">
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
-        <v>37</v>
+      <c r="B34">
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="2">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
         <v>1.0880000000000001</v>
       </c>
-      <c r="E34" s="2">
+      <c r="G34" s="2">
         <v>10.31</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" t="s">
-        <v>38</v>
+      <c r="B35">
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
+      <c r="B36">
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
+        <v>87</v>
+      </c>
+      <c r="D36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
         <v>2.6753999999999998</v>
       </c>
-      <c r="E36" s="2">
+      <c r="G36" s="2">
         <v>27.25</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" t="s">
-        <v>40</v>
+      <c r="B37">
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2">
+        <v>87</v>
+      </c>
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
         <v>3.3681999999999999</v>
       </c>
-      <c r="E37" s="2">
+      <c r="G37" s="2">
         <v>20.03</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
-      <c r="B38" t="s">
-        <v>41</v>
+      <c r="B38">
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="2">
+        <v>88</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
         <v>0.2039</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>6.54</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
-      <c r="B39" t="s">
-        <v>42</v>
+      <c r="B39">
+        <v>5</v>
       </c>
       <c r="C39" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
+        <v>88</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
         <v>0.90149999999999997</v>
       </c>
-      <c r="E39" s="2">
+      <c r="G39" s="2">
         <v>14.05</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
-      <c r="B40" t="s">
-        <v>43</v>
+      <c r="B40">
+        <v>5</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
-      <c r="B41" t="s">
-        <v>44</v>
+      <c r="B41">
+        <v>5</v>
       </c>
       <c r="C41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
-      <c r="B42" t="s">
-        <v>45</v>
+      <c r="B42">
+        <v>5</v>
       </c>
       <c r="C42" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="2">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
         <v>0.65</v>
       </c>
-      <c r="E42" s="2">
+      <c r="G42" s="2">
         <v>18.149999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5</v>
       </c>
-      <c r="B43" t="s">
-        <v>46</v>
+      <c r="B43">
+        <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="2">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
         <v>1.6896</v>
       </c>
-      <c r="E43" s="2">
+      <c r="G43" s="2">
         <v>16.010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5</v>
       </c>
-      <c r="B44" t="s">
-        <v>47</v>
+      <c r="B44">
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5</v>
       </c>
-      <c r="B45" t="s">
-        <v>48</v>
+      <c r="B45">
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="2">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
         <v>1.1866000000000001</v>
       </c>
-      <c r="E45" s="2">
+      <c r="G45" s="2">
         <v>3.26</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5</v>
       </c>
-      <c r="B46" t="s">
-        <v>49</v>
+      <c r="B46">
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D46" s="2">
+        <v>88</v>
+      </c>
+      <c r="D46" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
         <v>0.83450000000000002</v>
       </c>
-      <c r="E46" s="2">
+      <c r="G46" s="2">
         <v>3.63</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>6</v>
       </c>
-      <c r="B47" t="s">
-        <v>50</v>
+      <c r="B47">
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" t="s">
-        <v>51</v>
+      <c r="B48">
+        <v>6</v>
       </c>
       <c r="C48" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
         <v>3.2467000000000001</v>
       </c>
-      <c r="E48" s="2">
+      <c r="G48" s="2">
         <v>19.739999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>52</v>
+      <c r="B49">
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="2">
+        <v>87</v>
+      </c>
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2">
         <v>3.4561000000000002</v>
       </c>
-      <c r="E49" s="2">
+      <c r="G49" s="2">
         <v>9.0399999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>6</v>
       </c>
-      <c r="B50" t="s">
-        <v>53</v>
+      <c r="B50">
+        <v>6</v>
       </c>
       <c r="C50" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
+        <v>87</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
         <v>0.23569999999999999</v>
       </c>
-      <c r="E50" s="2">
+      <c r="G50" s="2">
         <v>4.43</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
-      <c r="B51" t="s">
-        <v>54</v>
+      <c r="B51">
+        <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" t="s">
-        <v>55</v>
+      <c r="B52">
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2">
+        <v>87</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2">
         <v>0.80740000000000001</v>
       </c>
-      <c r="E52" s="2">
+      <c r="G52" s="2">
         <v>6.4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
-        <v>56</v>
+      <c r="B53">
+        <v>6</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
+        <v>87</v>
+      </c>
+      <c r="D53" t="s">
+        <v>55</v>
+      </c>
+      <c r="E53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
         <v>2.0099</v>
       </c>
-      <c r="E53" s="2">
+      <c r="G53" s="2">
         <v>12.96</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>6</v>
       </c>
-      <c r="B54" t="s">
-        <v>57</v>
+      <c r="B54">
+        <v>6</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>6</v>
       </c>
-      <c r="B55" t="s">
-        <v>58</v>
+      <c r="B55">
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="2">
+        <v>87</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2">
         <v>1.1104000000000001</v>
       </c>
-      <c r="E55" s="2">
+      <c r="G55" s="2">
         <v>10.36</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>7</v>
       </c>
-      <c r="B56" t="s">
-        <v>59</v>
+      <c r="B56">
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
         <v>0.83260000000000001</v>
       </c>
-      <c r="E56" s="2">
+      <c r="G56" s="2">
         <v>6.27</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>7</v>
       </c>
-      <c r="B57" t="s">
-        <v>60</v>
+      <c r="B57">
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>7</v>
       </c>
-      <c r="B58" t="s">
-        <v>61</v>
+      <c r="B58">
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2">
+        <v>87</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2</v>
+      </c>
+      <c r="F58" s="2">
         <v>5.6173999999999999</v>
       </c>
-      <c r="E58" s="2">
+      <c r="G58" s="2">
         <v>20.82</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
-      <c r="B59" t="s">
-        <v>62</v>
+      <c r="B59">
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7</v>
       </c>
-      <c r="B60" t="s">
-        <v>63</v>
+      <c r="B60">
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="2">
+        <v>87</v>
+      </c>
+      <c r="D60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="2">
         <v>0.34649999999999997</v>
       </c>
-      <c r="E60" s="2">
+      <c r="G60" s="2">
         <v>8.43</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7</v>
       </c>
-      <c r="B61" t="s">
-        <v>64</v>
+      <c r="B61">
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2">
+        <v>87</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E61" s="2">
+      <c r="G61" s="2">
         <v>9.83</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
-      <c r="B62" t="s">
-        <v>65</v>
+      <c r="B62">
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2">
+        <v>87</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="2">
         <v>0.78220000000000001</v>
       </c>
-      <c r="E62" s="2">
+      <c r="G62" s="2">
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" t="s">
-        <v>66</v>
+      <c r="B63">
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="2">
+        <v>87</v>
+      </c>
+      <c r="D63" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
         <v>0.3301</v>
       </c>
-      <c r="E63" s="2">
+      <c r="G63" s="2">
         <v>3.69</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
-      <c r="B64" t="s">
-        <v>67</v>
+      <c r="B64">
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D64" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
-      <c r="B65" t="s">
-        <v>68</v>
+      <c r="B65">
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="2">
+        <v>88</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2">
         <v>1.2363999999999999</v>
       </c>
-      <c r="E65" s="2">
+      <c r="G65" s="2">
         <v>22.63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
-      <c r="B66" t="s">
-        <v>69</v>
+      <c r="B66">
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D66" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8</v>
       </c>
-      <c r="B67" t="s">
-        <v>70</v>
+      <c r="B67">
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
+        <v>88</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
         <v>0.33279999999999998</v>
       </c>
-      <c r="E67" s="2">
+      <c r="G67" s="2">
         <v>18.78</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>8</v>
       </c>
-      <c r="B68" t="s">
-        <v>71</v>
+      <c r="B68">
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
         <v>1.4211</v>
       </c>
-      <c r="E68" s="2">
+      <c r="G68" s="2">
         <v>8.26</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
-      <c r="B69" t="s">
-        <v>72</v>
+      <c r="B69">
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>8</v>
       </c>
-      <c r="B70" t="s">
-        <v>73</v>
+      <c r="B70">
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="2">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="2">
         <v>1.0062</v>
       </c>
-      <c r="E70" s="2">
+      <c r="G70" s="2">
         <v>11.7</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
-      <c r="B71" t="s">
-        <v>74</v>
+      <c r="B71">
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>0</v>
-      </c>
-      <c r="D71" s="2">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
         <v>2.6315</v>
       </c>
-      <c r="E71" s="2">
+      <c r="G71" s="2">
         <v>15.11</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>8</v>
       </c>
-      <c r="B72" t="s">
-        <v>75</v>
+      <c r="B72">
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="2">
+        <v>88</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="2">
         <v>1.796</v>
       </c>
-      <c r="E72" s="2">
+      <c r="G72" s="2">
         <v>13.56</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>8</v>
       </c>
-      <c r="B73" t="s">
-        <v>76</v>
+      <c r="B73">
+        <v>8</v>
       </c>
       <c r="C73" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" t="s">
+        <v>75</v>
+      </c>
+      <c r="E73" t="s">
         <v>1</v>
       </c>
     </row>
